--- a/admin/testdoc.xlsx
+++ b/admin/testdoc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chsan\Desktop\kahoot assignment\admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chsan\Downloads\kahoot-clone-10ed3afbe2c7595fb488b29f0593887db00b233c\kahoot-clone-10ed3afbe2c7595fb488b29f0593887db00b233c\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217C34B6-EF21-4184-B6CF-7971BFE06BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2868FB-3E02-485B-86C3-F3A0AA87AEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05647CB4-B910-4E3B-BA40-A631AD0A5928}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
